--- a/biology/Botanique/Haloragaceae/Haloragaceae.xlsx
+++ b/biology/Botanique/Haloragaceae/Haloragaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Haloragacées ou Haloragidacées est constituée de plantes dicotylédones ; elle comprend une centaine d'espèces réparties en 8-9 genres.
 Ce sont des plantes herbacées, des arbustes, majoritairement aquatiques pérennes, hétérophylle quand aquatiques, aux feuilles pennatilobées en verticille, aux épis floraux émergents, aux fleurs minuscules, des régions tempérées à tropicales.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre-type Haloragis qui est la forme latinisée du grec άλας / halas, sel, mer, et ρόγες / rhoges, baie de raisin, en référence au lieu de la première découverte d'une espèce de ce genre, sur une plage, et de ses fruits globuleux.
 </t>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Saxifragales.
 </t>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (27 avr. 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (27 avr. 2010) :
 Glischrocaryon (en) Endl.
 Gonocarpus (en) Thunb.
 Haloragis (en) J.R.Forst. &amp; G.Forst.
@@ -587,7 +605,7 @@
 Myriophyllum L.
 Proserpinaca (en) L.
 Vinkia Meijden
-Selon NCBI  (27 avr. 2010)[2] :
+Selon NCBI  (27 avr. 2010) :
 Glischrocaryon
 Gonocarpus
 Haloragis
@@ -597,7 +615,7 @@
 Meziella
 Myriophyllum
 Proserpinaca
-Selon ITIS      (27 avr. 2010)[3] :
+Selon ITIS      (27 avr. 2010) :
 Gonocarpus  Thunb.
 Haloragis  J.R. &amp; G. Forst.
 Myriophyllum  L.
@@ -629,9 +647,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (27 avr. 2010)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 avr. 2010) :
 genre Glischrocaryon
 Glischrocaryon aureum
 Glischrocaryon behrii
